--- a/data/input/CalibratorParamsScenarios.xlsx
+++ b/data/input/CalibratorParamsScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/CovidContagionCalibrator/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACEF5D7-EEF2-EE42-8D4E-A0E82FDC1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6677C3-0DF6-C84D-9EB5-71099F589030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0.02</v>

--- a/data/input/CalibratorParamsScenarios.xlsx
+++ b/data/input/CalibratorParamsScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/CovidContagionCalibrator/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6677C3-0DF6-C84D-9EB5-71099F589030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510142E4-414B-8442-8DFA-F55E1023ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>50</v>

--- a/data/input/CalibratorParamsScenarios.xlsx
+++ b/data/input/CalibratorParamsScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/CovidContagionCalibrator/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510142E4-414B-8442-8DFA-F55E1023ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C0362-AC51-114A-AB3C-66E6433E8334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
